--- a/EXE_RPA_DADOSFALSOS.xlsx
+++ b/EXE_RPA_DADOSFALSOS.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://provider01-my.sharepoint.com/personal/antonio_ferreira_provider-it_com_br/Documents/ExercicioRPATrilha/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="34" documentId="11_946C395471B18B0F81C87594CE03F0244BD438B6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AB68B20-723A-4ED1-98A8-FFB515F7AFB1}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
+    <sheet name="Página1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Nome</t>
   </si>
@@ -19,48 +28,27 @@
     <t>Data de nasc</t>
   </si>
   <si>
-    <t>Genero</t>
-  </si>
-  <si>
     <t>Cargo</t>
   </si>
   <si>
-    <t>Estado civil</t>
-  </si>
-  <si>
     <t>Ana Vitória Moreira</t>
   </si>
   <si>
-    <t>Feminino</t>
-  </si>
-  <si>
     <t>Visionario do Python</t>
   </si>
   <si>
-    <t>Solteiro</t>
-  </si>
-  <si>
     <t>Marcela Ramos</t>
   </si>
   <si>
-    <t>Outro</t>
-  </si>
-  <si>
     <t>Mago do HTML</t>
   </si>
   <si>
     <t>Dr. Ian Campos</t>
   </si>
   <si>
-    <t>Masculino</t>
-  </si>
-  <si>
     <t>Professor de JavaScript</t>
   </si>
   <si>
-    <t>Casado</t>
-  </si>
-  <si>
     <t>Daniela da Paz</t>
   </si>
   <si>
@@ -98,30 +86,35 @@
   </si>
   <si>
     <t>Luiz Otávio Oliveira</t>
+  </si>
+  <si>
+    <t>CPF</t>
+  </si>
+  <si>
+    <t>RG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF212529"/>
       <name val="Roboto"/>
     </font>
@@ -131,45 +124,52 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -359,24 +359,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.88"/>
-    <col customWidth="1" min="4" max="4" width="18.25"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -384,849 +389,849 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" s="3">
+        <v>34140</v>
+      </c>
+      <c r="C2" s="1">
+        <v>11111111111</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="E2" s="1">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3">
-        <v>34140.0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" s="3">
+        <v>25284</v>
+      </c>
+      <c r="C3" s="1">
+        <v>22222222222</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E3" s="1">
+        <v>222222222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="B4" s="3">
+        <v>31675</v>
+      </c>
+      <c r="C4" s="1">
+        <v>33333333333</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="E4" s="1">
+        <v>333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3">
-        <v>25284.0</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B5" s="3">
+        <v>36199</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44444444444</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>444444444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="B6" s="4">
+        <v>40841</v>
+      </c>
+      <c r="C6" s="1">
+        <v>55555555555</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>55555555</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="B7" s="3">
+        <v>30492</v>
+      </c>
+      <c r="C7" s="1">
+        <v>66666666666</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1">
+        <v>666666666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <v>34352</v>
+      </c>
+      <c r="C8" s="1">
+        <v>77777777777</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3">
-        <v>31675.0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E8" s="1">
+        <v>777777777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="B9" s="3">
+        <v>18657</v>
+      </c>
+      <c r="C9" s="1">
+        <v>88888888888</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>888888888</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="B10" s="3">
+        <v>41018</v>
+      </c>
+      <c r="C10" s="1">
+        <v>99999999999</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3">
-        <v>36199.0</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B11" s="3">
+        <v>32671</v>
+      </c>
+      <c r="C11" s="1">
+        <v>12345678901</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="4">
+        <v>27739</v>
+      </c>
+      <c r="C12" s="1">
+        <v>12345678902</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1">
+        <v>987654321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3">
+        <v>28536</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12345678903</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="E13" s="1">
+        <v>123245642</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4">
+        <v>37557</v>
+      </c>
+      <c r="C14" s="1">
+        <v>12345678904</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1">
+        <v>123456780</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3">
+        <v>21740</v>
+      </c>
+      <c r="C15" s="1">
+        <v>12345678905</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="4">
-        <v>40841.0</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="3">
-        <v>30492.0</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="3">
-        <v>34352.0</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="3">
-        <v>18657.0</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="3">
-        <v>41018.0</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="3">
-        <v>32671.0</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="4">
-        <v>27739.0</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="3">
-        <v>28536.0</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="4">
-        <v>37557.0</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="3">
-        <v>21740.0</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="E15" s="1">
+        <v>123123123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="4"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="4"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="4"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="4"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="3"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="3"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="3"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="3"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="4"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="4"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="3"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="4"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="3"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="3"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="3"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="3"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="4"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="3"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="3"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="3"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="3"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="3"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="3"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="3"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="4"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="3"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="3"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="3"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="3"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="3"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="3"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="3"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="4"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="3"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="3"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="4"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="3"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="3"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="3"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="3"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="4"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="3"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="3"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="4"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="3"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="3"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="3"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="3"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="3"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="4"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="3"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="4"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="3"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="3"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="3"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="3"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="3"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="3"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="3"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="3"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="3"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="4"/>
       <c r="C101" s="1"/>
@@ -1234,6 +1239,6 @@
       <c r="E101" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>